--- a/templates/VocExcel-template-080.xlsx
+++ b/templates/VocExcel-template-080.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/work/kurrawong/VocExcel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555C0904-8914-6343-AF37-3CC47EBDA8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD13CFFC-A54F-B346-B09B-920EB3296B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41200" yWindow="760" windowWidth="55360" windowHeight="28040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6680" yWindow="1020" windowWidth="37880" windowHeight="28040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="188">
   <si>
     <t>Version:</t>
   </si>
@@ -958,25 +958,6 @@
   <si>
     <t>Classification of this vocab according to other vocabs or simple keywords.
 Separate multiple IRIs or keywords with commas</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>Catalogue PID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> = A persistent identifier for this vocabulary in your catalogue system. Could be an IRI, a DOI or a numerical or textual ID, if this vocab has one</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1552,6 +1533,101 @@
         <rFont val="Arial (Body)"/>
       </rPr>
       <t xml:space="preserve"> = Alternate labels, optional.Separated by a newline or comma. Languages may be indicated wlith standard language codes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>* = The definition of the vocabulary. Plain text only but paragraphs may be separated by newlines</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>* = The definition of the Concept. Plain text only but paragraphs may be separated by newlines</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = An example of this Concept. Plain text only, which may be prose or RDF data, able to be separated into paragraphs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Image URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = a URL to an image that is avaiable online</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Image Embedded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = A small - a few KB - image to be embedeed in the vocab for this Concept. Add the image file to the Cell: Insert &gt; Pictures &gt;Place in Cell &gt; Picture from File…</t>
     </r>
   </si>
 </sst>
@@ -2296,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -3517,10 +3593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E056D66-684B-EA44-9D39-98A26FD38952}">
-  <dimension ref="A2:C64"/>
+  <dimension ref="A2:C67"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" x14ac:dyDescent="0.15"/>
@@ -3672,221 +3748,236 @@
     <row r="24" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17"/>
       <c r="B24" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="7" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
       <c r="B26" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17"/>
       <c r="B27" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
       <c r="B28" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
       <c r="B29" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
       <c r="B31" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
       <c r="B32" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
       <c r="B33" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="38" x14ac:dyDescent="0.15">
-      <c r="B38" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="1:2" ht="104" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" ht="104" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="15" t="s">
         <v>13</v>
       </c>
+      <c r="B39" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="52" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="52" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="38" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="1:2" ht="86" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:2" ht="86" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B52" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="88" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="7" t="s">
+    <row r="53" spans="1:2" ht="88" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="7" t="s">
+    <row r="54" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="7" t="s">
+    <row r="55" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="57" x14ac:dyDescent="0.15">
-      <c r="B53" s="7" t="s">
+    <row r="56" spans="1:2" ht="57" x14ac:dyDescent="0.15">
+      <c r="B56" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="38" x14ac:dyDescent="0.15">
-      <c r="B54" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="38" x14ac:dyDescent="0.15">
-      <c r="B55" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="7"/>
-    </row>
-    <row r="57" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="15" t="s">
+    <row r="57" spans="1:2" ht="38" x14ac:dyDescent="0.15">
+      <c r="B57" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="38" x14ac:dyDescent="0.15">
+      <c r="B58" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B59" s="7"/>
+    </row>
+    <row r="60" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="7" t="s">
+      <c r="B60" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="7"/>
+    <row r="61" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="7" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="62" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="15" t="s">
+      <c r="B62" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B63" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B64" s="7"/>
+    </row>
+    <row r="65" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B65" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="7" t="s">
+    <row r="66" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B64" s="7" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B67" s="7" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3906,7 +3997,7 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -4006,7 +4097,7 @@
       </c>
       <c r="B8" s="58"/>
       <c r="C8" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>24</v>
@@ -4018,7 +4109,7 @@
       </c>
       <c r="B9" s="55"/>
       <c r="C9" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>24</v>
@@ -4030,7 +4121,7 @@
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>25</v>
@@ -4042,7 +4133,7 @@
       </c>
       <c r="B11" s="56"/>
       <c r="C11" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>11</v>
@@ -4054,7 +4145,7 @@
       </c>
       <c r="B12" s="57"/>
       <c r="C12" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>3</v>
@@ -4069,7 +4160,7 @@
         <v>100</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -4078,7 +4169,7 @@
       </c>
       <c r="B14" s="59"/>
       <c r="C14" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>107</v>
@@ -4090,7 +4181,7 @@
       </c>
       <c r="B15" s="58"/>
       <c r="C15" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>108</v>
@@ -4114,7 +4205,7 @@
       </c>
       <c r="B17" s="58"/>
       <c r="C17" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>97</v>
@@ -7162,13 +7253,13 @@
         <v>74</v>
       </c>
       <c r="J2" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="L2" s="32" t="s">
         <v>174</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="271" customHeight="1" x14ac:dyDescent="0.15">
@@ -7176,37 +7267,37 @@
         <v>101</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>143</v>
-      </c>
       <c r="D3" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>50</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>100</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J3" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="K3" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="L3" s="60" t="s">
         <v>177</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="98" customHeight="1" x14ac:dyDescent="0.15">
@@ -7556,7 +7647,7 @@
         <v>66</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="21" customFormat="1" ht="266" x14ac:dyDescent="0.15">
@@ -7569,10 +7660,10 @@
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
@@ -7688,16 +7779,16 @@
     <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A3" s="61"/>
       <c r="B3" s="62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.15">
@@ -9081,10 +9172,10 @@
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>180</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>181</v>
       </c>
       <c r="C4" s="39"/>
     </row>
@@ -9277,6 +9368,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CE8352A0AF1CD4AB9B3521FB05BB06E" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad776eddaa4c2424eb5fa9eef7239753">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcd33c6e-30cb-4633-b8ec-d716de95c77b" xmlns:ns3="cc9fd5b5-cf46-4eda-9201-7118bc1c1603" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03cb13ad1de5dce1c8a6420670aeaf6" ns2:_="" ns3:_="">
     <xsd:import namespace="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
@@ -9513,16 +9613,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C0741D-72E1-4141-9700-3202E4B56A5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35C5B03A-DD20-4DDE-9069-342AD74757E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9539,12 +9638,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C0741D-72E1-4141-9700-3202E4B56A5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/templates/VocExcel-template-080.xlsx
+++ b/templates/VocExcel-template-080.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/work/kurrawong/VocExcel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD13CFFC-A54F-B346-B09B-920EB3296B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BA6965-8AC2-3543-BBBB-800A64873BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="1020" windowWidth="37880" windowHeight="28040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6680" yWindow="760" windowWidth="37880" windowHeight="28040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -507,10 +507,6 @@
     <t>https://w3id.org/profile/vocpub/spec</t>
   </si>
   <si>
-    <t>This workbook is designed to allow for simple the creation of vocabularies according to the VocPub Profile of the SKOS data model. It doesn't allow you to do everything SKOS can do, but it can help you create most of the core SKOS elements - a ConceptsScheme for the vocabulary, Concepts, their labels and relations and grouping of Concepts in Collections.
-To understand what particular properties are, e.g. skos:exactMatch, or how to use them, read the notes here, the per-cell notes in some of the Sheets themselves, e.g. the Concept Scheme sheet, or in the VocPub &amp; SKOS documentation at https://w3id.org/profile/vocpub/spec, https://www.w3.org/TR/skos-primer/ &amp; https://www.w3.org/TR/skos-reference/.</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -1629,6 +1625,10 @@
       </rPr>
       <t xml:space="preserve"> = A small - a few KB - image to be embedeed in the vocab for this Concept. Add the image file to the Cell: Insert &gt; Pictures &gt;Place in Cell &gt; Picture from File…</t>
     </r>
+  </si>
+  <si>
+    <t>This workbook is designed to allow for the creation of simple vocabularies according to the VocPub Profile of the SKOS data model. It doesn't allow you to do everything SKOS can do, but it can help you create most of the core SKOS elements - a ConceptsScheme for the vocabulary, Concepts, their labels and relations and grouping of Concepts in Collections.
+To understand what particular properties are, e.g. skos:exactMatch, or how to use them, read the notes here, the per-cell notes in some of the Sheets themselves, e.g. the Concept Scheme sheet, or in the VocPub &amp; SKOS documentation at https://w3id.org/profile/vocpub/spec, https://www.w3.org/TR/skos-primer/ &amp; https://www.w3.org/TR/skos-reference/.</t>
   </si>
 </sst>
 </file>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -2402,7 +2402,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
@@ -2434,7 +2434,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
@@ -2534,7 +2534,7 @@
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
@@ -3595,8 +3595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E056D66-684B-EA44-9D39-98A26FD38952}">
   <dimension ref="A2:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" x14ac:dyDescent="0.15"/>
@@ -3617,7 +3617,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="365" x14ac:dyDescent="0.15">
@@ -3625,7 +3625,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>31</v>
@@ -3722,7 +3722,7 @@
     <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="8"/>
     </row>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="21" spans="1:3" ht="95" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -3742,89 +3742,89 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17"/>
       <c r="B24" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
       <c r="B26" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17"/>
       <c r="B27" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
       <c r="B28" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
       <c r="B29" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
       <c r="B31" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
       <c r="B32" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
       <c r="B33" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -3835,62 +3835,62 @@
         <v>13</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="52" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -3901,37 +3901,37 @@
         <v>33</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="88" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="57" x14ac:dyDescent="0.15">
       <c r="B56" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B57" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B58" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -3942,22 +3942,22 @@
         <v>18</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -3968,17 +3968,17 @@
         <v>32</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B67" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B8" s="58"/>
       <c r="C8" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>24</v>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="B9" s="55"/>
       <c r="C9" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>24</v>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>25</v>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="B11" s="56"/>
       <c r="C11" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>11</v>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="B12" s="57"/>
       <c r="C12" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>3</v>
@@ -4153,62 +4153,62 @@
     </row>
     <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="57"/>
       <c r="C13" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="59"/>
       <c r="C14" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="58"/>
       <c r="C15" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="58"/>
       <c r="C16" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="58"/>
       <c r="C17" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -7238,66 +7238,66 @@
         <v>16</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>69</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J2" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="L2" s="32" t="s">
         <v>173</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="271" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>142</v>
-      </c>
       <c r="D3" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>50</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J3" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="K3" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="L3" s="60" t="s">
         <v>176</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="98" customHeight="1" x14ac:dyDescent="0.15">
@@ -7647,7 +7647,7 @@
         <v>66</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="21" customFormat="1" ht="266" x14ac:dyDescent="0.15">
@@ -7660,10 +7660,10 @@
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
@@ -7779,16 +7779,16 @@
     <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A3" s="61"/>
       <c r="B3" s="62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.15">
@@ -9161,21 +9161,21 @@
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>102</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>179</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>180</v>
       </c>
       <c r="C4" s="39"/>
     </row>
@@ -9254,108 +9254,108 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25" x14ac:dyDescent="0.2">
       <c r="A1" s="68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -9368,15 +9368,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CE8352A0AF1CD4AB9B3521FB05BB06E" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad776eddaa4c2424eb5fa9eef7239753">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcd33c6e-30cb-4633-b8ec-d716de95c77b" xmlns:ns3="cc9fd5b5-cf46-4eda-9201-7118bc1c1603" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03cb13ad1de5dce1c8a6420670aeaf6" ns2:_="" ns3:_="">
     <xsd:import namespace="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
@@ -9613,15 +9604,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C0741D-72E1-4141-9700-3202E4B56A5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35C5B03A-DD20-4DDE-9069-342AD74757E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9638,4 +9630,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C0741D-72E1-4141-9700-3202E4B56A5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/templates/VocExcel-template-080.xlsx
+++ b/templates/VocExcel-template-080.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/work/kurrawong/VocExcel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BA6965-8AC2-3543-BBBB-800A64873BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F29DA3C-F477-5E4B-9DDE-552869C2AFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="760" windowWidth="37880" windowHeight="28040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6680" yWindow="760" windowWidth="37880" windowHeight="28040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="193">
   <si>
     <t>Version:</t>
   </si>
@@ -797,102 +797,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>Related Match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> = This cell asserts a related or associated relationship between the concepts listed. It's important to note that these concepts aren't close enough to be transitive. e.g. If example 1 is a related match to example 2, and example 2 is a related match of example 3, it does not follow example 1 is a related match of example 3.</t>
-    </r>
-  </si>
-  <si>
     <t>Defining Vocab IRI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>Close Match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> = Mapping with this cell means the concepts are sufficiently similar that they can be used interchangeably. However, these concepts are not close enough to be transitive amongst each other. e.g. if example 1 is a close match of example 2, and example 2 is a close match of example 3, it does not follow example 1 is a close match of example 3.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>Exact Match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> = This is a subset of a close match. Concepts in this cell are to be added if they are sufficiently similar enough to be used interchangeably. However, this is a higher degree of closeness than closeMatch and allows transitivity between exact matches. e.g. if example 1 is an exact match of example 2, and example 2 is an exact match of example 3, it follows example 1 is an exact match of example 3.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>Broader Match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> = Broader match allows the user to assert that a concept is broader in meaning to another concept. e.g. a strawberry has a broader concept of fruit. This is the inverse of a narrower property. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>Narrower Match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> = Narrower match allows the user to assert a concept is narrower in meaning to another concept. e.g. fruit has a narrower concept of strawberries. This is the inverse of a broader property.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1629,6 +1534,150 @@
   <si>
     <t>This workbook is designed to allow for the creation of simple vocabularies according to the VocPub Profile of the SKOS data model. It doesn't allow you to do everything SKOS can do, but it can help you create most of the core SKOS elements - a ConceptsScheme for the vocabulary, Concepts, their labels and relations and grouping of Concepts in Collections.
 To understand what particular properties are, e.g. skos:exactMatch, or how to use them, read the notes here, the per-cell notes in some of the Sheets themselves, e.g. the Concept Scheme sheet, or in the VocPub &amp; SKOS documentation at https://w3id.org/profile/vocpub/spec, https://www.w3.org/TR/skos-primer/ &amp; https://www.w3.org/TR/skos-reference/.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Related Match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = This is for related concepts </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>between vocabularies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>, not just within this vocabulary. The value expected is therefore the IRI of an external concept.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Close Match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = This is for closely related concepts between vocabularies, not just within this vocabulary. The value expected is therefore the IRI of an external concept.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Exact Match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> =  This is for xactly matching concepts between vocabularies, not just within this vocabulary. The value expected is therefore the IRI of an external concept.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Broader Match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = This is the same as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>broader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> within one vocabulary but use to link to concepts in another vocabulary.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Narrower Match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = This is the same as narrower within one vocabulary but use to link to concepts in another vocabulary.</t>
+    </r>
+  </si>
+  <si>
+    <t>This is for related concepts between vocabularies, not just within this vocabulary. The value expected is therefore the IRI of an external concept.</t>
+  </si>
+  <si>
+    <t>This is for closely related concepts between vocabularies, not just within this vocabulary. The value expected is therefore the IRI of an external concept.</t>
+  </si>
+  <si>
+    <t>This is for xactly matching concepts between vocabularies, not just within this vocabulary. The value expected is therefore the IRI of an external concept.</t>
+  </si>
+  <si>
+    <t>This is the same as broader within one vocabulary but use to link to concepts in another vocabulary.</t>
+  </si>
+  <si>
+    <t>This is the same as narrower within one vocabulary but use to link to concepts in another vocabulary.</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1687,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1852,6 +1901,12 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial (Body)"/>
+    </font>
+    <font>
+      <i/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial (Body)"/>
@@ -2372,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -3595,8 +3650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E056D66-684B-EA44-9D39-98A26FD38952}">
   <dimension ref="A2:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" x14ac:dyDescent="0.15"/>
@@ -3617,7 +3672,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="365" x14ac:dyDescent="0.15">
@@ -3748,83 +3803,83 @@
     <row r="24" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17"/>
       <c r="B24" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
       <c r="B26" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17"/>
       <c r="B27" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
       <c r="B28" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
       <c r="B29" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
       <c r="B31" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
       <c r="B32" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
       <c r="B33" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -3840,98 +3895,98 @@
     </row>
     <row r="40" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="52" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B51" s="7"/>
     </row>
-    <row r="52" spans="1:2" ht="86" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" ht="52" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="88" customHeight="1" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="57" x14ac:dyDescent="0.15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="38" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B58" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -3942,22 +3997,22 @@
         <v>18</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -3968,17 +4023,17 @@
         <v>32</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B67" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4097,7 +4152,7 @@
       </c>
       <c r="B8" s="58"/>
       <c r="C8" s="34" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>24</v>
@@ -4109,7 +4164,7 @@
       </c>
       <c r="B9" s="55"/>
       <c r="C9" s="34" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>24</v>
@@ -4121,7 +4176,7 @@
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="34" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>25</v>
@@ -4133,7 +4188,7 @@
       </c>
       <c r="B11" s="56"/>
       <c r="C11" s="34" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>11</v>
@@ -4145,7 +4200,7 @@
       </c>
       <c r="B12" s="57"/>
       <c r="C12" s="34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>3</v>
@@ -4160,7 +4215,7 @@
         <v>99</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
@@ -4169,7 +4224,7 @@
       </c>
       <c r="B14" s="59"/>
       <c r="C14" s="34" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>106</v>
@@ -4181,7 +4236,7 @@
       </c>
       <c r="B15" s="58"/>
       <c r="C15" s="34" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>107</v>
@@ -4193,7 +4248,7 @@
       </c>
       <c r="B16" s="58"/>
       <c r="C16" s="34" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>108</v>
@@ -4205,7 +4260,7 @@
       </c>
       <c r="B17" s="58"/>
       <c r="C17" s="34" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>96</v>
@@ -7247,19 +7302,19 @@
         <v>98</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I2" s="32" t="s">
         <v>73</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="271" customHeight="1" x14ac:dyDescent="0.15">
@@ -7267,37 +7322,37 @@
         <v>100</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>50</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>99</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K3" s="60" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L3" s="60" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="98" customHeight="1" x14ac:dyDescent="0.15">
@@ -7598,9 +7653,9 @@
   </sheetPr>
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7647,23 +7702,33 @@
         <v>66</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="21" customFormat="1" ht="266" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="B3" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>191</v>
+      </c>
       <c r="G3" s="50" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
@@ -7779,16 +7844,16 @@
     <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A3" s="61"/>
       <c r="B3" s="62" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.15">
@@ -9172,10 +9237,10 @@
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C4" s="39"/>
     </row>
@@ -9368,6 +9433,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CE8352A0AF1CD4AB9B3521FB05BB06E" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad776eddaa4c2424eb5fa9eef7239753">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcd33c6e-30cb-4633-b8ec-d716de95c77b" xmlns:ns3="cc9fd5b5-cf46-4eda-9201-7118bc1c1603" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03cb13ad1de5dce1c8a6420670aeaf6" ns2:_="" ns3:_="">
     <xsd:import namespace="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
@@ -9604,16 +9678,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C0741D-72E1-4141-9700-3202E4B56A5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35C5B03A-DD20-4DDE-9069-342AD74757E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9630,12 +9703,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C0741D-72E1-4141-9700-3202E4B56A5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/templates/VocExcel-template-080.xlsx
+++ b/templates/VocExcel-template-080.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/work/kurrawong/VocExcel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F29DA3C-F477-5E4B-9DDE-552869C2AFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D8E19B-3F83-0D4C-851E-9FE179B598DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="760" windowWidth="37880" windowHeight="28040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6680" yWindow="760" windowWidth="37880" windowHeight="28040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -588,10 +588,6 @@
     <t>An optional hyperlink to or textual description of source information</t>
   </si>
   <si>
-    <t>The unique identifier for this Concept.
-May be a full IRI or a prefixed IRI with the prefix taken from the Prefixes tab</t>
-  </si>
-  <si>
     <t>ex</t>
   </si>
   <si>
@@ -755,46 +751,8 @@
     <t>Field Values</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>Vocabulary IRI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>* = The IRI referring to this specific vocabulary. This must be a valid URI. Likely you will have this URI supplied (e.g. https://linked.data.gov.au/def/ or http://pid.geoscience.gov.au/def/voc/ . You can use a fake value, as long as it's a valid URI, to be replaced later (e.g. http://example.com/def/v1 ). Background Note: an IRI (International Resource Identifier) is like a URI (Uniform Reference Identifier) but with more permissible characters. Additional Note, this link does not have to end with a forward slash. Note, you can use this IRI with the prefix sheet with terminology like ex:example. Refer to the prefix sheet column below.</t>
-    </r>
-  </si>
-  <si>
     <t>This section described each of the fields that are needed for the ConceptScheme, Concepts and all other vocabulary elements. There are additional notes next to most fields on their individual sheets also.
 Starred fields are mandatory.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>Concept IRI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>* = Must be a valid URI. Often this is based on the Vocabulary URI, e.g. if the vocab URI is https://example.com/def/rocks, the Concept URI might be https://example.com/def/rocks/metamorphic. When Concepts are borrowed from other vocabularies, the URI must be the URI from the original vocabulary. Note, you can use this IRI with the prefix sheet with terminology like ex:example. Refer to the prefix sheet column below</t>
-    </r>
   </si>
   <si>
     <t>Defining Vocab IRI</t>
@@ -1102,25 +1060,6 @@
         <rFont val="Arial (Body)"/>
       </rPr>
       <t>= An optional statement about the origin of this specific Concept</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t>Defining Vocabulary URI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> = If this Concept is imported from another vocabulary, this should be that vocabulary's IRI</t>
     </r>
   </si>
   <si>
@@ -1678,6 +1617,56 @@
   </si>
   <si>
     <t>This is the same as narrower within one vocabulary but use to link to concepts in another vocabulary.</t>
+  </si>
+  <si>
+    <t>Defining Vocabulary IRI = If this Concept is imported from another vocabulary, this should be that vocabulary's IRI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Vocabulary IRI*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = The IRI referring to this specific vocabulary. This must be a valid IRI. Likely you will have this IRI supplied where it has been created within a persisted IRI namespace, e.g. https://linked.data.gov.au/def/ or http://pid.geoscience.gov.au/def/voc/ . 
+You can use a fake value, as long as it's a valid IRI, to be replaced later (e.g. http://example.com/def/v1 ). 
+Background Note: an IRI (International Resource Identifier) is like a IRI (Uniform Reference Identifier) but with more permissible characters. Additional Note, this link does not have to end with a forward slash. Note, you can use this IRI with the prefix sheet with terminology like ex:example. Refer to the prefix sheet column below.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Concept IRI*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = Must be a valid IRI. Often this is based on the Vocabulary IRI, e.g. if the vocab IRI is https://example.com/def/rocks, the Concept IRI might be https://example.com/def/rocks/metamorphic. 
+Better than creating a Concept IRI from a Concept's prefLabel, as per 'metamorphic' above, is to use an ID generator of some kind to make opaque, robust, IDs that are guarenteed to be unique within the vocabulary and possibly gobally. Use the 'Online UUID Generator' at https://www.uuidgenerator.net/. 
+When Concepts are borrowed from other vocabularies, the IRI must be the IRI from the original vocabulary. Note, you can use this IRI with the prefix sheet with terminology like ex:example. Refer to the prefix sheet column below.</t>
+    </r>
+  </si>
+  <si>
+    <t>The unique identifier for this Concept.
+May be a full IRI or a prefixed IRI with the prefix taken from the Prefixes tab.
+Consider using opaque, universally unique IDs within the IRI, generated by https://www.uuidgenerator.net.</t>
   </si>
 </sst>
 </file>
@@ -2427,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -2457,7 +2446,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
@@ -2489,7 +2478,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
@@ -2589,7 +2578,7 @@
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
@@ -3650,8 +3639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E056D66-684B-EA44-9D39-98A26FD38952}">
   <dimension ref="A2:C67"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" x14ac:dyDescent="0.15"/>
@@ -3672,7 +3661,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="365" x14ac:dyDescent="0.15">
@@ -3680,7 +3669,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>31</v>
@@ -3777,7 +3766,7 @@
     <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="8"/>
     </row>
@@ -3786,166 +3775,166 @@
     </row>
     <row r="21" spans="1:3" ht="95" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:3" ht="141" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="213" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17"/>
       <c r="B24" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
       <c r="B26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17"/>
       <c r="B27" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
       <c r="B28" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
       <c r="B29" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
       <c r="B31" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
       <c r="B32" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
       <c r="B33" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="1:2" ht="104" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" ht="212" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="52" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -3956,37 +3945,37 @@
         <v>33</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="38" x14ac:dyDescent="0.15">
       <c r="B58" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -3997,22 +3986,22 @@
         <v>18</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -4023,17 +4012,17 @@
         <v>32</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B67" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4152,7 +4141,7 @@
       </c>
       <c r="B8" s="58"/>
       <c r="C8" s="34" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>24</v>
@@ -4164,7 +4153,7 @@
       </c>
       <c r="B9" s="55"/>
       <c r="C9" s="34" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>24</v>
@@ -4176,7 +4165,7 @@
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="34" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>25</v>
@@ -4188,7 +4177,7 @@
       </c>
       <c r="B11" s="56"/>
       <c r="C11" s="34" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>11</v>
@@ -4200,7 +4189,7 @@
       </c>
       <c r="B12" s="57"/>
       <c r="C12" s="34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>3</v>
@@ -4215,19 +4204,19 @@
         <v>99</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="59"/>
       <c r="C14" s="34" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.15">
@@ -4236,22 +4225,22 @@
       </c>
       <c r="B15" s="58"/>
       <c r="C15" s="34" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="58"/>
       <c r="C16" s="34" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.15">
@@ -4260,7 +4249,7 @@
       </c>
       <c r="B17" s="58"/>
       <c r="C17" s="34" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>96</v>
@@ -7249,7 +7238,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
@@ -7302,57 +7291,57 @@
         <v>98</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I2" s="32" t="s">
         <v>73</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="271" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>50</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>99</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K3" s="60" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L3" s="60" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="98" customHeight="1" x14ac:dyDescent="0.15">
@@ -7653,7 +7642,7 @@
   </sheetPr>
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
@@ -7702,7 +7691,7 @@
         <v>66</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="21" customFormat="1" ht="266" x14ac:dyDescent="0.15">
@@ -7710,25 +7699,25 @@
         <v>56</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>192</v>
-      </c>
       <c r="F3" s="27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
@@ -7844,16 +7833,16 @@
     <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A3" s="61"/>
       <c r="B3" s="62" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.15">
@@ -9226,21 +9215,21 @@
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>101</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C4" s="39"/>
     </row>
@@ -9319,7 +9308,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25" x14ac:dyDescent="0.2">
       <c r="A1" s="68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -9433,15 +9422,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CE8352A0AF1CD4AB9B3521FB05BB06E" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad776eddaa4c2424eb5fa9eef7239753">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcd33c6e-30cb-4633-b8ec-d716de95c77b" xmlns:ns3="cc9fd5b5-cf46-4eda-9201-7118bc1c1603" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03cb13ad1de5dce1c8a6420670aeaf6" ns2:_="" ns3:_="">
     <xsd:import namespace="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
@@ -9678,15 +9658,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C0741D-72E1-4141-9700-3202E4B56A5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35C5B03A-DD20-4DDE-9069-342AD74757E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9703,4 +9684,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C0741D-72E1-4141-9700-3202E4B56A5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/templates/VocExcel-template-080.xlsx
+++ b/templates/VocExcel-template-080.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/work/kurrawong/VocExcel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D8E19B-3F83-0D4C-851E-9FE179B598DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822E6F92-0EE0-C84E-97DD-27BC02232DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="760" windowWidth="37880" windowHeight="28040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59620" yWindow="700" windowWidth="37880" windowHeight="28040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="194">
   <si>
     <t>Version:</t>
   </si>
@@ -1667,6 +1667,9 @@
     <t>The unique identifier for this Concept.
 May be a full IRI or a prefixed IRI with the prefix taken from the Prefixes tab.
 Consider using opaque, universally unique IDs within the IRI, generated by https://www.uuidgenerator.net.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1876,12 +1879,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1899,6 +1896,12 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1949,7 +1952,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2082,14 +2085,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2148,6 +2147,13 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2485,7 +2491,7 @@
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
-      <c r="K8" s="49"/>
+      <c r="K8" s="47"/>
     </row>
     <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.15">
       <c r="A9" s="38"/>
@@ -3639,7 +3645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E056D66-684B-EA44-9D39-98A26FD38952}">
   <dimension ref="A2:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -4042,7 +4048,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4054,12 +4060,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
     </row>
     <row r="2" spans="1:4" s="36" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -4079,7 +4085,7 @@
       <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="34" t="s">
         <v>57</v>
       </c>
@@ -4091,7 +4097,7 @@
       <c r="A4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="34" t="s">
         <v>23</v>
       </c>
@@ -4103,7 +4109,7 @@
       <c r="A5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="54"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="34" t="s">
         <v>55</v>
       </c>
@@ -4115,7 +4121,7 @@
       <c r="A6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="34" t="s">
         <v>5</v>
       </c>
@@ -4127,7 +4133,9 @@
       <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="50" t="s">
+        <v>193</v>
+      </c>
       <c r="C7" s="34" t="s">
         <v>7</v>
       </c>
@@ -4139,7 +4147,7 @@
       <c r="A8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="58"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="34" t="s">
         <v>157</v>
       </c>
@@ -4151,7 +4159,7 @@
       <c r="A9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="34" t="s">
         <v>158</v>
       </c>
@@ -4163,7 +4171,7 @@
       <c r="A10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="34" t="s">
         <v>155</v>
       </c>
@@ -4175,7 +4183,7 @@
       <c r="A11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="56"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="34" t="s">
         <v>122</v>
       </c>
@@ -4187,7 +4195,7 @@
       <c r="A12" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="57"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="34" t="s">
         <v>120</v>
       </c>
@@ -4199,7 +4207,7 @@
       <c r="A13" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="57"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="34" t="s">
         <v>99</v>
       </c>
@@ -4211,7 +4219,7 @@
       <c r="A14" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="34" t="s">
         <v>127</v>
       </c>
@@ -4223,7 +4231,7 @@
       <c r="A15" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="58"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="34" t="s">
         <v>128</v>
       </c>
@@ -4235,7 +4243,7 @@
       <c r="A16" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="58"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="34" t="s">
         <v>118</v>
       </c>
@@ -4247,7 +4255,7 @@
       <c r="A17" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="58"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="34" t="s">
         <v>125</v>
       </c>
@@ -7236,9 +7244,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B2936F-06B6-364A-893D-D48542B6FA7F}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
@@ -7257,16 +7265,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
@@ -7331,287 +7339,287 @@
       <c r="H3" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="58" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="98" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="A4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="A5" s="67"/>
+      <c r="G5" s="67"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="A6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="19"/>
-      <c r="G7" s="46"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="19"/>
-      <c r="G8" s="46"/>
+      <c r="G8" s="68"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="G9" s="67"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="19"/>
-      <c r="G10" s="46"/>
+      <c r="G10" s="68"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="19"/>
-      <c r="G11" s="46"/>
+      <c r="G11" s="68"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="44"/>
       <c r="C12" s="19"/>
-      <c r="G12" s="46"/>
+      <c r="G12" s="68"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="44"/>
       <c r="C13" s="19"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="44"/>
       <c r="C14" s="19"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="67"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="44"/>
       <c r="C15" s="19"/>
-      <c r="G15" s="46"/>
+      <c r="G15" s="68"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" s="19"/>
-      <c r="G16" s="46"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C17"/>
+      <c r="G16" s="68"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="18"/>
       <c r="E17" s="44"/>
-      <c r="G17" s="20"/>
+      <c r="G17" s="67"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C18"/>
+      <c r="C18" s="18"/>
       <c r="E18" s="44"/>
-      <c r="G18" s="46"/>
+      <c r="G18" s="68"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="G19" s="20"/>
+      <c r="G19" s="67"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="G20" s="20"/>
+      <c r="G20" s="67"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="G21" s="20"/>
+      <c r="G21" s="67"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="48"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="48"/>
+      <c r="G22" s="67"/>
+    </row>
+    <row r="23" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B23" s="69"/>
+      <c r="G23" s="67"/>
+    </row>
+    <row r="24" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B24" s="69"/>
       <c r="C24" s="44"/>
       <c r="D24" s="45"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="48"/>
+      <c r="G24" s="67"/>
+    </row>
+    <row r="25" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B25" s="69"/>
       <c r="C25" s="44"/>
       <c r="D25" s="45"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="48"/>
+      <c r="G25" s="67"/>
+    </row>
+    <row r="26" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B26" s="69"/>
       <c r="C26" s="44"/>
       <c r="D26" s="45"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="48"/>
+      <c r="G26" s="67"/>
+    </row>
+    <row r="27" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B27" s="69"/>
       <c r="C27" s="44"/>
       <c r="D27" s="45"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B28" s="48"/>
+      <c r="G27" s="67"/>
+    </row>
+    <row r="28" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B28" s="69"/>
       <c r="C28" s="44"/>
-      <c r="D28" s="47"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="48"/>
-      <c r="D29" s="47"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="48"/>
-      <c r="D30" s="47"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="48"/>
-      <c r="D31" s="47"/>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="48"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B33" s="48"/>
-      <c r="D33" s="47"/>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="48"/>
-      <c r="D34" s="47"/>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="48"/>
-      <c r="D35" s="47"/>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="48"/>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="48"/>
-      <c r="G37" s="20"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="48"/>
-      <c r="D38" s="47"/>
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="48"/>
-      <c r="D39" s="47"/>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="48"/>
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="48"/>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="48"/>
-      <c r="D42" s="47"/>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="48"/>
-      <c r="G43" s="20"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B44" s="48"/>
-      <c r="G44" s="20"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B45" s="48"/>
-      <c r="D45" s="47"/>
-      <c r="G45" s="20"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B46" s="48"/>
-      <c r="G46" s="20"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B47" s="48"/>
-      <c r="G47" s="20"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="48"/>
-      <c r="D48" s="47"/>
-      <c r="G48" s="20"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="48"/>
-      <c r="D49" s="47"/>
-      <c r="G49" s="20"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B50" s="48"/>
-      <c r="G50" s="20"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B51" s="48"/>
-      <c r="D51" s="47"/>
-      <c r="G51" s="20"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B52" s="48"/>
-      <c r="D52" s="47"/>
-      <c r="G52" s="20"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B53" s="48"/>
-      <c r="D53" s="47"/>
-      <c r="G53" s="20"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B54" s="48"/>
-      <c r="G54" s="20"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B55" s="48"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B56" s="48"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B57" s="48"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B58" s="48"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B59" s="48"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B60" s="48"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="48"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B62" s="48"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B63" s="48"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B64" s="48"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="48"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="48"/>
+      <c r="D28" s="46"/>
+      <c r="G28" s="67"/>
+    </row>
+    <row r="29" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B29" s="69"/>
+      <c r="D29" s="46"/>
+      <c r="G29" s="67"/>
+    </row>
+    <row r="30" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B30" s="69"/>
+      <c r="D30" s="46"/>
+      <c r="G30" s="67"/>
+    </row>
+    <row r="31" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B31" s="69"/>
+      <c r="D31" s="46"/>
+      <c r="G31" s="67"/>
+    </row>
+    <row r="32" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B32" s="69"/>
+      <c r="G32" s="67"/>
+    </row>
+    <row r="33" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B33" s="69"/>
+      <c r="D33" s="46"/>
+      <c r="G33" s="67"/>
+    </row>
+    <row r="34" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B34" s="69"/>
+      <c r="D34" s="46"/>
+      <c r="G34" s="67"/>
+    </row>
+    <row r="35" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B35" s="69"/>
+      <c r="D35" s="46"/>
+      <c r="G35" s="67"/>
+    </row>
+    <row r="36" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B36" s="69"/>
+      <c r="G36" s="67"/>
+    </row>
+    <row r="37" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B37" s="69"/>
+      <c r="G37" s="67"/>
+    </row>
+    <row r="38" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B38" s="69"/>
+      <c r="D38" s="46"/>
+      <c r="G38" s="67"/>
+    </row>
+    <row r="39" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B39" s="69"/>
+      <c r="D39" s="46"/>
+      <c r="G39" s="67"/>
+    </row>
+    <row r="40" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B40" s="69"/>
+      <c r="G40" s="67"/>
+    </row>
+    <row r="41" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B41" s="69"/>
+      <c r="G41" s="67"/>
+    </row>
+    <row r="42" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B42" s="69"/>
+      <c r="D42" s="46"/>
+      <c r="G42" s="67"/>
+    </row>
+    <row r="43" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B43" s="69"/>
+      <c r="G43" s="67"/>
+    </row>
+    <row r="44" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B44" s="69"/>
+      <c r="G44" s="67"/>
+    </row>
+    <row r="45" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B45" s="69"/>
+      <c r="D45" s="46"/>
+      <c r="G45" s="67"/>
+    </row>
+    <row r="46" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B46" s="69"/>
+      <c r="G46" s="67"/>
+    </row>
+    <row r="47" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B47" s="69"/>
+      <c r="G47" s="67"/>
+    </row>
+    <row r="48" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B48" s="69"/>
+      <c r="D48" s="46"/>
+      <c r="G48" s="67"/>
+    </row>
+    <row r="49" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B49" s="69"/>
+      <c r="D49" s="46"/>
+      <c r="G49" s="67"/>
+    </row>
+    <row r="50" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B50" s="69"/>
+      <c r="G50" s="67"/>
+    </row>
+    <row r="51" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B51" s="69"/>
+      <c r="D51" s="46"/>
+      <c r="G51" s="67"/>
+    </row>
+    <row r="52" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B52" s="69"/>
+      <c r="D52" s="46"/>
+      <c r="G52" s="67"/>
+    </row>
+    <row r="53" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B53" s="69"/>
+      <c r="D53" s="46"/>
+      <c r="G53" s="67"/>
+    </row>
+    <row r="54" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B54" s="69"/>
+      <c r="G54" s="67"/>
+    </row>
+    <row r="55" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B55" s="69"/>
+    </row>
+    <row r="56" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B56" s="69"/>
+    </row>
+    <row r="57" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B57" s="69"/>
+    </row>
+    <row r="58" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B58" s="69"/>
+    </row>
+    <row r="59" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B59" s="69"/>
+    </row>
+    <row r="60" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B60" s="69"/>
+    </row>
+    <row r="61" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B61" s="69"/>
+    </row>
+    <row r="62" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B62" s="69"/>
+    </row>
+    <row r="63" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B63" s="69"/>
+    </row>
+    <row r="64" spans="2:7" ht="19" x14ac:dyDescent="0.15">
+      <c r="B64" s="69"/>
+    </row>
+    <row r="65" spans="2:2" ht="19" x14ac:dyDescent="0.15">
+      <c r="B65" s="69"/>
+    </row>
+    <row r="66" spans="2:2" ht="19" x14ac:dyDescent="0.15">
+      <c r="B66" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7657,16 +7665,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -7713,31 +7721,31 @@
       <c r="F3" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
     </row>
     <row r="4" spans="1:27" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
@@ -7805,13 +7813,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -7831,17 +7839,17 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="60" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9195,11 +9203,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
@@ -9307,11 +9315,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
@@ -9422,6 +9430,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CE8352A0AF1CD4AB9B3521FB05BB06E" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad776eddaa4c2424eb5fa9eef7239753">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcd33c6e-30cb-4633-b8ec-d716de95c77b" xmlns:ns3="cc9fd5b5-cf46-4eda-9201-7118bc1c1603" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03cb13ad1de5dce1c8a6420670aeaf6" ns2:_="" ns3:_="">
     <xsd:import namespace="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
@@ -9658,16 +9675,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C0741D-72E1-4141-9700-3202E4B56A5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35C5B03A-DD20-4DDE-9069-342AD74757E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9684,12 +9700,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41C0741D-72E1-4141-9700-3202E4B56A5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/templates/VocExcel-template-080.xlsx
+++ b/templates/VocExcel-template-080.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/work/kurrawong/VocExcel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822E6F92-0EE0-C84E-97DD-27BC02232DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D234A7C-F7F8-1940-B882-646B5777C563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59620" yWindow="700" windowWidth="37880" windowHeight="28040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59620" yWindow="700" windowWidth="37880" windowHeight="28040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="192">
   <si>
     <t>Version:</t>
   </si>
@@ -1346,12 +1346,6 @@
   </si>
   <si>
     <t>0.8.0</t>
-  </si>
-  <si>
-    <t>myvoc</t>
-  </si>
-  <si>
-    <t>http://example.com/voc/myvoc/</t>
   </si>
   <si>
     <t>A textual ID for this Concept. Must be letters and numbers and simple punctuation like full stop only.</t>
@@ -1952,7 +1946,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2133,6 +2127,10 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2147,13 +2145,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3667,7 +3658,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="365" x14ac:dyDescent="0.15">
@@ -3792,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -3804,7 +3795,7 @@
     <row r="25" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -3885,7 +3876,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
@@ -3895,12 +3886,12 @@
     </row>
     <row r="41" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="52" customHeight="1" x14ac:dyDescent="0.15">
@@ -3920,7 +3911,7 @@
     </row>
     <row r="46" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
@@ -3930,17 +3921,17 @@
     </row>
     <row r="48" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -3951,27 +3942,27 @@
         <v>33</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
@@ -4060,12 +4051,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:4" s="36" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -4134,7 +4125,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>7</v>
@@ -7244,7 +7235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B2936F-06B6-364A-893D-D48542B6FA7F}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
@@ -7265,16 +7256,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
@@ -7316,7 +7307,7 @@
     </row>
     <row r="3" spans="1:12" ht="271" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>132</v>
@@ -7353,273 +7344,273 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="98" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="G4" s="67"/>
+      <c r="A4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="67"/>
-      <c r="G5" s="67"/>
+      <c r="A5" s="20"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="K6" s="67"/>
+      <c r="A6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="19"/>
-      <c r="G7" s="68"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="19"/>
-      <c r="G8" s="68"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="19"/>
-      <c r="G9" s="67"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="19"/>
-      <c r="G10" s="68"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="19"/>
-      <c r="G11" s="68"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="44"/>
       <c r="C12" s="19"/>
-      <c r="G12" s="68"/>
+      <c r="G12" s="62"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="44"/>
       <c r="C13" s="19"/>
-      <c r="G13" s="67"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="44"/>
       <c r="C14" s="19"/>
-      <c r="G14" s="67"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="44"/>
       <c r="C15" s="19"/>
-      <c r="G15" s="68"/>
+      <c r="G15" s="62"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" s="19"/>
-      <c r="G16" s="68"/>
+      <c r="G16" s="62"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C17" s="18"/>
       <c r="E17" s="44"/>
-      <c r="G17" s="67"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C18" s="18"/>
       <c r="E18" s="44"/>
-      <c r="G18" s="68"/>
+      <c r="G18" s="62"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="G19" s="67"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="G20" s="67"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="G21" s="67"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="G22" s="67"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B23" s="69"/>
-      <c r="G23" s="67"/>
+      <c r="B23" s="63"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B24" s="69"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="44"/>
       <c r="D24" s="45"/>
-      <c r="G24" s="67"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B25" s="69"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="44"/>
       <c r="D25" s="45"/>
-      <c r="G25" s="67"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B26" s="69"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="44"/>
       <c r="D26" s="45"/>
-      <c r="G26" s="67"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B27" s="69"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="44"/>
       <c r="D27" s="45"/>
-      <c r="G27" s="67"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B28" s="69"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="44"/>
       <c r="D28" s="46"/>
-      <c r="G28" s="67"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B29" s="69"/>
+      <c r="B29" s="63"/>
       <c r="D29" s="46"/>
-      <c r="G29" s="67"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B30" s="69"/>
+      <c r="B30" s="63"/>
       <c r="D30" s="46"/>
-      <c r="G30" s="67"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B31" s="69"/>
+      <c r="B31" s="63"/>
       <c r="D31" s="46"/>
-      <c r="G31" s="67"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B32" s="69"/>
-      <c r="G32" s="67"/>
+      <c r="B32" s="63"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B33" s="69"/>
+      <c r="B33" s="63"/>
       <c r="D33" s="46"/>
-      <c r="G33" s="67"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B34" s="69"/>
+      <c r="B34" s="63"/>
       <c r="D34" s="46"/>
-      <c r="G34" s="67"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B35" s="69"/>
+      <c r="B35" s="63"/>
       <c r="D35" s="46"/>
-      <c r="G35" s="67"/>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B36" s="69"/>
-      <c r="G36" s="67"/>
+      <c r="B36" s="63"/>
+      <c r="G36" s="20"/>
     </row>
     <row r="37" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B37" s="69"/>
-      <c r="G37" s="67"/>
+      <c r="B37" s="63"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B38" s="69"/>
+      <c r="B38" s="63"/>
       <c r="D38" s="46"/>
-      <c r="G38" s="67"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B39" s="69"/>
+      <c r="B39" s="63"/>
       <c r="D39" s="46"/>
-      <c r="G39" s="67"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B40" s="69"/>
-      <c r="G40" s="67"/>
+      <c r="B40" s="63"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B41" s="69"/>
-      <c r="G41" s="67"/>
+      <c r="B41" s="63"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B42" s="69"/>
+      <c r="B42" s="63"/>
       <c r="D42" s="46"/>
-      <c r="G42" s="67"/>
+      <c r="G42" s="20"/>
     </row>
     <row r="43" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B43" s="69"/>
-      <c r="G43" s="67"/>
+      <c r="B43" s="63"/>
+      <c r="G43" s="20"/>
     </row>
     <row r="44" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B44" s="69"/>
-      <c r="G44" s="67"/>
+      <c r="B44" s="63"/>
+      <c r="G44" s="20"/>
     </row>
     <row r="45" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B45" s="69"/>
+      <c r="B45" s="63"/>
       <c r="D45" s="46"/>
-      <c r="G45" s="67"/>
+      <c r="G45" s="20"/>
     </row>
     <row r="46" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B46" s="69"/>
-      <c r="G46" s="67"/>
+      <c r="B46" s="63"/>
+      <c r="G46" s="20"/>
     </row>
     <row r="47" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B47" s="69"/>
-      <c r="G47" s="67"/>
+      <c r="B47" s="63"/>
+      <c r="G47" s="20"/>
     </row>
     <row r="48" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B48" s="69"/>
+      <c r="B48" s="63"/>
       <c r="D48" s="46"/>
-      <c r="G48" s="67"/>
+      <c r="G48" s="20"/>
     </row>
     <row r="49" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B49" s="69"/>
+      <c r="B49" s="63"/>
       <c r="D49" s="46"/>
-      <c r="G49" s="67"/>
+      <c r="G49" s="20"/>
     </row>
     <row r="50" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B50" s="69"/>
-      <c r="G50" s="67"/>
+      <c r="B50" s="63"/>
+      <c r="G50" s="20"/>
     </row>
     <row r="51" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B51" s="69"/>
+      <c r="B51" s="63"/>
       <c r="D51" s="46"/>
-      <c r="G51" s="67"/>
+      <c r="G51" s="20"/>
     </row>
     <row r="52" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B52" s="69"/>
+      <c r="B52" s="63"/>
       <c r="D52" s="46"/>
-      <c r="G52" s="67"/>
+      <c r="G52" s="20"/>
     </row>
     <row r="53" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B53" s="69"/>
+      <c r="B53" s="63"/>
       <c r="D53" s="46"/>
-      <c r="G53" s="67"/>
+      <c r="G53" s="20"/>
     </row>
     <row r="54" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B54" s="69"/>
-      <c r="G54" s="67"/>
+      <c r="B54" s="63"/>
+      <c r="G54" s="20"/>
     </row>
     <row r="55" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B55" s="69"/>
+      <c r="B55" s="63"/>
     </row>
     <row r="56" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B56" s="69"/>
+      <c r="B56" s="63"/>
     </row>
     <row r="57" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B57" s="69"/>
+      <c r="B57" s="63"/>
     </row>
     <row r="58" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B58" s="69"/>
+      <c r="B58" s="63"/>
     </row>
     <row r="59" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B59" s="69"/>
+      <c r="B59" s="63"/>
     </row>
     <row r="60" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B60" s="69"/>
+      <c r="B60" s="63"/>
     </row>
     <row r="61" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B61" s="69"/>
+      <c r="B61" s="63"/>
     </row>
     <row r="62" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B62" s="69"/>
+      <c r="B62" s="63"/>
     </row>
     <row r="63" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B63" s="69"/>
+      <c r="B63" s="63"/>
     </row>
     <row r="64" spans="2:7" ht="19" x14ac:dyDescent="0.15">
-      <c r="B64" s="69"/>
+      <c r="B64" s="63"/>
     </row>
     <row r="65" spans="2:2" ht="19" x14ac:dyDescent="0.15">
-      <c r="B65" s="69"/>
+      <c r="B65" s="63"/>
     </row>
     <row r="66" spans="2:2" ht="19" x14ac:dyDescent="0.15">
-      <c r="B66" s="69"/>
+      <c r="B66" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7665,16 +7656,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -7707,22 +7698,22 @@
         <v>56</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="E3" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>187</v>
-      </c>
       <c r="G3" s="48" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H3" s="48" t="s">
         <v>142</v>
@@ -7813,13 +7804,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -9190,8 +9181,8 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9203,11 +9194,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
@@ -9225,7 +9216,7 @@
       <c r="A3" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>102</v>
       </c>
       <c r="C3" s="39" t="s">
@@ -9233,12 +9224,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>170</v>
-      </c>
+      <c r="A4" s="39"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="39"/>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -9291,7 +9278,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{676310C4-C087-BC4C-8563-8EE4843541D0}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{C68731A6-5831-9241-96CF-E5B801CF7291}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -9315,11 +9302,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
